--- a/data/trans_orig/IP07C30_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C30_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC34D287-FADA-4945-AAFD-BCA0A37E2645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83ED3E9B-1DAF-4031-98C8-A52052ADB563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6F4395FF-C9DF-455C-B174-5D23BD482E37}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CC68C9A5-CC68-47D8-8BE3-21DF2F9D18FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Menores según frecuencia de situaciones de cyberbulling en tu colegio en 2023 (Tasa respuesta: 28,28%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>51,62%</t>
+    <t>54,03%</t>
   </si>
   <si>
     <t>11,12%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
   </si>
   <si>
     <t>13,88%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>83,91%</t>
   </si>
   <si>
-    <t>48,38%</t>
+    <t>45,97%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,19 +113,19 @@
     <t>88,88%</t>
   </si>
   <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
   </si>
   <si>
     <t>86,12%</t>
   </si>
   <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>10,7%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
   </si>
   <si>
     <t>15,36%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
   </si>
   <si>
     <t>12,73%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
   </si>
   <si>
     <t>89,3%</t>
   </si>
   <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
   </si>
   <si>
     <t>84,64%</t>
   </si>
   <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
   </si>
   <si>
     <t>87,27%</t>
   </si>
   <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,103 @@
     <t>21,01%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
   </si>
   <si>
     <t>9,93%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
   </si>
   <si>
     <t>15,96%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
+    <t>23,72%</t>
   </si>
   <si>
     <t>78,99%</t>
   </si>
   <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
   <si>
     <t>90,07%</t>
   </si>
   <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>84,04%</t>
   </si>
   <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
+    <t>76,28%</t>
   </si>
   <si>
     <t>12,97%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
   </si>
   <si>
     <t>14,01%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
   </si>
   <si>
     <t>13,43%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
   </si>
   <si>
     <t>87,03%</t>
   </si>
   <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
   </si>
   <si>
     <t>85,99%</t>
   </si>
   <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
   </si>
   <si>
     <t>86,57%</t>
   </si>
   <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -711,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2FCF46-323A-4D25-9092-764805FDA7BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F16E532-99F6-4A63-ADAE-BC2068F1DA0F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1178,10 +1172,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1196,13 +1190,13 @@
         <v>36545</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>48</v>
@@ -1211,13 +1205,13 @@
         <v>34857</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>97</v>
@@ -1226,13 +1220,13 @@
         <v>71402</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1300,13 +1294,13 @@
         <v>31997</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -1315,13 +1309,13 @@
         <v>27153</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>82</v>
@@ -1330,13 +1324,13 @@
         <v>59150</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,13 +1345,13 @@
         <v>214685</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
@@ -1366,13 +1360,13 @@
         <v>166693</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>461</v>
@@ -1381,13 +1375,13 @@
         <v>381378</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1443,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C30_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C30_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83ED3E9B-1DAF-4031-98C8-A52052ADB563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{900D5713-8CE5-4ADC-BFF9-FB782DF1F7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CC68C9A5-CC68-47D8-8BE3-21DF2F9D18FE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{011BF7CE-FA35-4E48-A582-968CE929E285}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
-  <si>
-    <t>Menores según frecuencia de situaciones de cyberbulling en tu colegio en 2023 (Tasa respuesta: 28,28%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="154">
+  <si>
+    <t>Menores según si se han producido situaciones de cyberbulling en su colegio en 2023 (Tasa respuesta: 30,0%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,64 +68,124 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>16,09%</t>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>4,47%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,163 +194,307 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -705,8 +909,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F16E532-99F6-4A63-ADAE-BC2068F1DA0F}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C21CAF-D00B-4158-A564-0DC2AFC84688}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -823,10 +1027,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>2486</v>
+        <v>7547</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -838,10 +1042,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>1377</v>
+        <v>5546</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -853,10 +1057,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>3863</v>
+        <v>13094</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -874,10 +1078,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>12965</v>
+        <v>4305</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -889,10 +1093,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>11005</v>
+        <v>6076</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -904,10 +1108,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N5" s="7">
-        <v>23970</v>
+        <v>10382</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -922,153 +1126,151 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>555</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2769</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7">
-        <v>15451</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>16</v>
-      </c>
-      <c r="I6" s="7">
-        <v>12382</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>35</v>
-      </c>
       <c r="N6" s="7">
-        <v>27833</v>
+        <v>3323</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>19790</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>21934</v>
+        <v>905</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>41724</v>
+        <v>905</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>165175</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="H8" s="7">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>120831</v>
+        <v>596</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
-        <v>334</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>286006</v>
+        <v>596</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>49</v>
@@ -1080,102 +1282,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>205</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>184965</v>
+        <v>12407</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="I9" s="7">
-        <v>142765</v>
+        <v>15892</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
-        <v>392</v>
+        <v>38</v>
       </c>
       <c r="N9" s="7">
-        <v>327730</v>
+        <v>28299</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
-        <v>9721</v>
+        <v>67058</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="I10" s="7">
-        <v>3842</v>
+        <v>105656</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M10" s="7">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="N10" s="7">
-        <v>13563</v>
+        <v>172714</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1184,204 +1386,202 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="D11" s="7">
-        <v>36545</v>
+        <v>85642</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="I11" s="7">
-        <v>34857</v>
+        <v>74461</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="N11" s="7">
-        <v>71402</v>
+        <v>160103</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5459</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="7">
+        <v>24</v>
+      </c>
+      <c r="I12" s="7">
+        <v>19933</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="7">
+        <v>33</v>
+      </c>
+      <c r="N12" s="7">
+        <v>25392</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1154</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2650</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="7">
         <v>3</v>
       </c>
-      <c r="C12" s="7">
-        <v>62</v>
-      </c>
-      <c r="D12" s="7">
-        <v>46266</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>54</v>
-      </c>
-      <c r="I12" s="7">
-        <v>38699</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="7">
-        <v>116</v>
-      </c>
-      <c r="N12" s="7">
-        <v>84965</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7">
-        <v>40</v>
-      </c>
-      <c r="D13" s="7">
-        <v>31997</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="7">
-        <v>42</v>
-      </c>
-      <c r="I13" s="7">
-        <v>27153</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="7">
-        <v>82</v>
-      </c>
       <c r="N13" s="7">
-        <v>59150</v>
+        <v>3805</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>214685</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>166693</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>381378</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1390,66 +1590,682 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="D15" s="7">
-        <v>246682</v>
+        <v>159313</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="7">
+        <v>217</v>
+      </c>
+      <c r="I15" s="7">
+        <v>202700</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="7">
+        <v>412</v>
+      </c>
+      <c r="N15" s="7">
+        <v>362013</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>35</v>
+      </c>
+      <c r="D16" s="7">
+        <v>22688</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="7">
+        <v>40</v>
+      </c>
+      <c r="I16" s="7">
+        <v>29734</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" s="7">
+        <v>75</v>
+      </c>
+      <c r="N16" s="7">
+        <v>52422</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>21</v>
+      </c>
+      <c r="D17" s="7">
+        <v>15258</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="7">
+        <v>28</v>
+      </c>
+      <c r="I17" s="7">
+        <v>22077</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M17" s="7">
+        <v>49</v>
+      </c>
+      <c r="N17" s="7">
+        <v>37335</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>806</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>882</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M18" s="7">
+        <v>2</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1688</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>57</v>
+      </c>
+      <c r="D21" s="7">
+        <v>38752</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="7">
+        <v>69</v>
+      </c>
+      <c r="I21" s="7">
+        <v>52693</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="7">
+        <v>126</v>
+      </c>
+      <c r="N21" s="7">
+        <v>91445</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>138</v>
+      </c>
+      <c r="D22" s="7">
+        <v>97293</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="7">
+        <v>154</v>
+      </c>
+      <c r="I22" s="7">
+        <v>140937</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M22" s="7">
+        <v>292</v>
+      </c>
+      <c r="N22" s="7">
+        <v>238229</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>120</v>
+      </c>
+      <c r="D23" s="7">
+        <v>105205</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="7">
+        <v>121</v>
+      </c>
+      <c r="I23" s="7">
+        <v>102614</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M23" s="7">
+        <v>241</v>
+      </c>
+      <c r="N23" s="7">
+        <v>207819</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>257</v>
-      </c>
-      <c r="I15" s="7">
-        <v>193846</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
-        <v>543</v>
-      </c>
-      <c r="N15" s="7">
-        <v>440528</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>85</v>
+      <c r="C24" s="7">
+        <v>11</v>
+      </c>
+      <c r="D24" s="7">
+        <v>6820</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="7">
+        <v>27</v>
+      </c>
+      <c r="I24" s="7">
+        <v>23583</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M24" s="7">
+        <v>38</v>
+      </c>
+      <c r="N24" s="7">
+        <v>30403</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1154</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3555</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4709</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>596</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1</v>
+      </c>
+      <c r="N26" s="7">
+        <v>596</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>270</v>
+      </c>
+      <c r="D27" s="7">
+        <v>210472</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="7">
+        <v>306</v>
+      </c>
+      <c r="I27" s="7">
+        <v>271285</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="7">
+        <v>576</v>
+      </c>
+      <c r="N27" s="7">
+        <v>481757</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
